--- a/ResourceMassPerEC.xlsx
+++ b/ResourceMassPerEC.xlsx
@@ -255,7 +255,7 @@
     <numFmt numFmtId="166" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="167" formatCode="0.0000000000"/>
     <numFmt numFmtId="168" formatCode="0.00000000000000000"/>
-    <numFmt numFmtId="178" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -417,10 +417,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -493,14 +489,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -519,6 +519,3304 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="16916399"/>
+          <a:ext cx="6496050" cy="6429375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MODULE {</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>name = ODFC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MODE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MaxEC = 18</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FUELS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MonoPropellant = 0.018</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MODE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MaxEC = 18</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FUELS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LiquidFuel = 0.02025</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Oxidizer = 0.055</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MODE:NEEDS[CommunityResourcePack]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MaxEC = 18</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FUELS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hydrogen = 3.75353458622189</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Oxygen = 2.83903913718094</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BYPRODUCTS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Water = 0.00303630919748661</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MODE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MaxEC = 18</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FUELS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LiquidFuel = 0.00153</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IntakeAir = 0.3672</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -786,8 +4084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,166 +4112,166 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="2">
         <v>0.5</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="2">
         <v>1</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="2">
         <v>1.5</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="2">
         <v>5</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="2">
         <v>10</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="2">
         <v>15</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="2">
         <v>30</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
         <v>0.5</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <f>SUM(E9:E10)</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f>D8/E8</f>
         <v>400</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f>(G9*D9)+(G10*D10)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <f>1/G8</f>
         <v>200</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <f>SUM(I9:I10)</f>
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <f>H8*F8</f>
         <v>80000</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <f>J8/L8</f>
         <v>16000</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <f>(D9*L9)+(D10*L10)</f>
         <v>5</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6">
+      <c r="M8" s="5"/>
+      <c r="N8" s="5">
         <v>0.25</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="9"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="8"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <f>D8*C8</f>
         <v>0.5</v>
       </c>
@@ -981,671 +4279,671 @@
         <f>E9/E8</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>1.1249999999999999E-3</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f>1/G9</f>
         <v>200</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f>E9*G9</f>
         <v>5.6249999999999995E-6</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <f>I9*1000</f>
         <v>5.6249999999999998E-3</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
         <v>5</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>0.8</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="11"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="10"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="1">
         <f>E10/E8</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>1.3750000000000001E-3</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <f>1/G10</f>
         <v>200</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f>E10*G10</f>
         <v>6.8750000000000011E-6</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <f>I10*1000</f>
         <v>6.8750000000000009E-3</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
         <v>5</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>0.18</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="11"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5">
         <v>0.5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <f>SUM(E13:E14)</f>
         <v>1E-3</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f>D12/E12</f>
         <v>1000</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <f>1/G12</f>
         <v>250</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <f>E12/G12</f>
         <v>0.25</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <f>H12*F12</f>
         <v>250000</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <f>J12/L12</f>
         <v>50000</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>5</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>1.2</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <v>0.25</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="9"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="8"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>1E-3</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="11"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="10"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="13"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <f>SUM(E16:E17)</f>
         <v>0.31345705748340186</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <f>D15/E15</f>
         <v>3.1902296538751624</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <f>(G16*D16)+(G17*D17)</f>
         <v>5.317934023574977E-7</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <f>1/G15</f>
         <v>1880429.496806263</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <f>SUM(I9:I10)</f>
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <f>H15*F15</f>
         <v>5999001.9427328901</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <f>J15/L15</f>
         <v>5999001.9427328901</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <f>(D16*L16)+(D17*L17)</f>
         <v>1</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6">
+      <c r="M15" s="5"/>
+      <c r="N15" s="5">
         <v>0.25</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="9"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="8"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="17">
+      <c r="C16" s="6"/>
+      <c r="D16" s="16">
         <f>E16/E15</f>
         <v>0.66525763021172812</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>0.20852969923454936</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="19">
+      <c r="F16" s="6"/>
+      <c r="G16" s="18">
         <v>8.9900000000000004E-8</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <f>1/G16</f>
         <v>11123470.522803115</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <f>E16*G16</f>
         <v>1.874681996118599E-8</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="20">
         <f>I16*1000</f>
         <v>1.8746819961185989E-5</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="7">
+      <c r="K16" s="20"/>
+      <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>5.5835999999999999E-5</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="11"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="17">
+      <c r="C17" s="6"/>
+      <c r="D17" s="16">
         <f>E17/E15</f>
         <v>0.33474236978827188</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>0.10492735824885249</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="22">
+      <c r="F17" s="6"/>
+      <c r="G17" s="21">
         <v>1.4100000000000001E-6</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <f>1/G17</f>
         <v>709219.85815602832</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="17">
         <f>E17*G17</f>
         <v>1.4794757513088201E-7</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="20">
         <f>I17*1000</f>
         <v>1.4794757513088202E-4</v>
       </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="7">
+      <c r="K17" s="20"/>
+      <c r="L17" s="6">
         <v>1</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <v>5.5835999999999999E-5</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="11"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="10"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="11"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="10"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <f>E19/E15</f>
         <v>5.381402022308718E-4</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>1.6868384430481187E-4</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <f>D15/E19</f>
         <v>5928.2499999999945</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>1E-3</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <f>1/G19</f>
         <v>1000</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="17">
         <f>E19*G19</f>
         <v>1.6868384430481187E-7</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="20">
         <f>I19*1000</f>
         <v>1.6868384430481187E-4</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="17">
         <f>J19/L19</f>
         <v>1.6868384430481187E-4</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <v>1</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="11"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="10"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="12"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>0.5</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>1</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <f>SUM(E22:E23)</f>
         <v>1.3600000000000001E-3</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <f>D21/E21</f>
         <v>735.29411764705878</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <f>(G22*D22)+(G23*D23)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <f>1/G21</f>
         <v>200</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f>SUM(I22:I23)</f>
         <v>6.800000000000001E-6</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <f>H21*F21</f>
         <v>147058.82352941175</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <f>J21/L21</f>
         <v>117647.0588235294</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <f>(D22*L22)+(D23*L23)</f>
         <v>1.25</v>
       </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6">
+      <c r="M21" s="5"/>
+      <c r="N21" s="5">
         <v>0.25</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="9"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="8"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="1">
         <f>E22/E21</f>
         <v>6.25E-2</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>8.5000000000000006E-5</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <f>1/G22</f>
         <v>200</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <f>E22*G22</f>
         <v>4.2500000000000006E-7</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <f>I22*1000</f>
         <v>4.2500000000000008E-4</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6">
         <v>5</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <v>0.8</v>
       </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="11"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="10"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="1">
         <f>E23/E21</f>
         <v>0.9375</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>1.2750000000000001E-3</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <f>1/G23</f>
         <v>200</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <f>E23*G23</f>
         <v>6.3750000000000008E-6</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <f>I23*1000</f>
         <v>6.3750000000000005E-3</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6">
         <v>1</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="6">
         <v>0</v>
       </c>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="11"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="10"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="13"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="12"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1653,47 +4951,47 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="32">
         <v>1</v>
       </c>
-      <c r="C27" s="6">
-        <v>1.5</v>
+      <c r="C27" s="5">
+        <v>5</v>
       </c>
       <c r="G27" s="1">
         <v>0.33364751877527898</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="1">
         <f>C27/D8</f>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="E28" s="1">
         <f>E9*D28*B$27</f>
-        <v>1.6874999999999998E-3</v>
+        <v>5.6249999999999998E-3</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="1">
         <f>C27/D9</f>
-        <v>3.3333333333333335</v>
+        <v>11.111111111111112</v>
       </c>
       <c r="E29" s="1">
         <f>E10*D29*B$27</f>
-        <v>4.5833333333333342E-3</v>
+        <v>1.5277777777777781E-2</v>
       </c>
       <c r="G29" s="1">
         <v>0.17061520846463141</v>
@@ -1703,121 +5001,121 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
       <c r="I30" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="32">
         <v>1</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <f>$C$27</f>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1">
         <f>C31/D12</f>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="E31" s="1">
         <f>E12*D31*B$31</f>
-        <v>1.5E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="G32" s="18">
+      <c r="C32" s="6"/>
+      <c r="G32" s="17">
         <v>0.17061520846463141</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="G33" s="18">
+      <c r="A33" s="11"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="G33" s="17">
         <v>8.5849656749061198E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="34">
+      <c r="B34" s="32">
         <v>1</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <f>$C$27</f>
-        <v>1.5</v>
-      </c>
-      <c r="G34" s="18">
+        <v>5</v>
+      </c>
+      <c r="G34" s="17">
         <v>1.3801405443121E-4</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="1">
         <f>C34/D15</f>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="E35" s="1">
         <f>E16*D35*B$34</f>
-        <v>0.31279454885182406</v>
+        <v>1.0426484961727469</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="9"/>
+      <c r="B36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="1">
         <f>C34/D16</f>
-        <v>2.2547655703289005</v>
+        <v>7.5158852344296685</v>
       </c>
       <c r="E36" s="1">
         <f>E17*D36*B$34</f>
-        <v>0.23658659476507876</v>
+        <v>0.7886219825502625</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="1">
         <f>C34/D15</f>
-        <v>1.5</v>
-      </c>
-      <c r="E38" s="35">
+        <v>5</v>
+      </c>
+      <c r="E38" s="33">
         <f>E19*D38*B$34</f>
-        <v>2.5302576645721783E-4</v>
+        <v>8.4341922152405928E-4</v>
       </c>
       <c r="G38" s="1">
         <v>1.6</v>
@@ -1834,9 +5132,9 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
       <c r="H39" s="1" t="s">
         <v>51</v>
       </c>
@@ -1852,15 +5150,15 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="34">
+      <c r="B40" s="32">
         <v>1</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <f>$C$27</f>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>52</v>
@@ -1874,47 +5172,47 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="1">
         <f>C40/D21</f>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="E41" s="1">
         <f>E22*D41*B$40</f>
-        <v>1.2750000000000001E-4</v>
+        <v>4.2500000000000003E-4</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="1">
         <f>C40/D22</f>
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E42" s="1">
         <f>E23*D42*B$40</f>
-        <v>3.0600000000000002E-2</v>
+        <v>0.10200000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
       <c r="H44" s="1" t="s">
         <v>45</v>
       </c>
@@ -1923,94 +5221,94 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="25" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
       <c r="I45" s="1">
         <v>0.10492735824885249</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="29"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="28"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28" t="s">
+      <c r="A47" s="26"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="29"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
       <c r="I47" s="1">
         <v>1.6868384430481187E-4</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="29"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="28"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28" t="str">
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27" t="str">
         <f xml:space="preserve"> "MaxEC = " &amp; $C$31</f>
-        <v>MaxEC = 1.5</v>
-      </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
+        <v>MaxEC = 5</v>
+      </c>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
       <c r="I49" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28" t="s">
+      <c r="A50" s="26"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="29"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="28"/>
       <c r="I50" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28" t="s">
+      <c r="A51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="29"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
       <c r="I51" s="1" t="s">
         <v>56</v>
       </c>
@@ -2019,400 +5317,400 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28" t="str">
+      <c r="A52" s="26"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27" t="str">
         <f xml:space="preserve"> B32 &amp; " = " &amp; E31</f>
-        <v>MonoPropellant = 0.0015</v>
-      </c>
-      <c r="F52" s="28"/>
-      <c r="G52" s="29"/>
+        <v>MonoPropellant = 0.005</v>
+      </c>
+      <c r="F52" s="27"/>
+      <c r="G52" s="28"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28" t="s">
+      <c r="A53" s="26"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="29"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="28"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28" t="s">
+      <c r="A54" s="26"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="29"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="28"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28" t="s">
+      <c r="A55" s="26"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="29"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="28"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28" t="s">
+      <c r="A56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="28"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28" t="str">
+      <c r="A57" s="26"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27" t="str">
         <f xml:space="preserve"> "MaxEC = " &amp; $C$27</f>
-        <v>MaxEC = 1.5</v>
-      </c>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="29"/>
+        <v>MaxEC = 5</v>
+      </c>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="28"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28" t="s">
+      <c r="A58" s="26"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="29"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="28"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28" t="s">
+      <c r="A59" s="26"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="29"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="28"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28" t="str">
+      <c r="A60" s="26"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27" t="str">
         <f xml:space="preserve"> B28 &amp; " = " &amp; E28</f>
-        <v>LiquidFuel = 0.0016875</v>
-      </c>
-      <c r="F60" s="28"/>
-      <c r="G60" s="29"/>
+        <v>LiquidFuel = 0.005625</v>
+      </c>
+      <c r="F60" s="27"/>
+      <c r="G60" s="28"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28" t="str">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27" t="str">
         <f xml:space="preserve"> B29 &amp; " = " &amp; E29</f>
-        <v>Oxidizer = 0.00458333333333333</v>
-      </c>
-      <c r="F61" s="28"/>
-      <c r="G61" s="29"/>
+        <v>Oxidizer = 0.0152777777777778</v>
+      </c>
+      <c r="F61" s="27"/>
+      <c r="G61" s="28"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28" t="s">
+      <c r="A62" s="26"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="29"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="28"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28" t="s">
+      <c r="A63" s="26"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="29"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="28"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28" t="s">
+      <c r="A64" s="26"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="28"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28" t="s">
+      <c r="A65" s="26"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="29"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="28"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28" t="str">
+      <c r="A66" s="26"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27" t="str">
         <f xml:space="preserve"> "MaxEC = " &amp; $C$34</f>
-        <v>MaxEC = 1.5</v>
-      </c>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="29"/>
+        <v>MaxEC = 5</v>
+      </c>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="28"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28" t="s">
+      <c r="A67" s="26"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="29"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="28"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28" t="s">
+      <c r="A68" s="26"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="29"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="28"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="27"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28" t="str">
+      <c r="A69" s="26"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27" t="str">
         <f xml:space="preserve"> B35 &amp; " = " &amp; E35</f>
-        <v>Hydrogen = 0.312794548851824</v>
-      </c>
-      <c r="F69" s="28"/>
-      <c r="G69" s="29"/>
+        <v>Hydrogen = 1.04264849617275</v>
+      </c>
+      <c r="F69" s="27"/>
+      <c r="G69" s="28"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28" t="str">
+      <c r="A70" s="26"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27" t="str">
         <f xml:space="preserve"> B36 &amp; " = " &amp; E36</f>
-        <v>Oxygen = 0.236586594765079</v>
-      </c>
-      <c r="F70" s="28"/>
-      <c r="G70" s="29"/>
+        <v>Oxygen = 0.788621982550263</v>
+      </c>
+      <c r="F70" s="27"/>
+      <c r="G70" s="28"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28" t="s">
+      <c r="A71" s="26"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="29"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="28"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28" t="s">
+      <c r="A72" s="26"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="29"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="28"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28" t="s">
+      <c r="A73" s="26"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="29"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="28"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="27"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28" t="str">
+      <c r="A74" s="26"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27" t="str">
         <f xml:space="preserve"> B38 &amp; " = " &amp; E38</f>
-        <v>Water = 0.000253025766457218</v>
-      </c>
-      <c r="F74" s="28"/>
-      <c r="G74" s="29"/>
+        <v>Water = 0.000843419221524059</v>
+      </c>
+      <c r="F74" s="27"/>
+      <c r="G74" s="28"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28" t="s">
+      <c r="A75" s="26"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="29"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="28"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28" t="s">
+      <c r="A76" s="26"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="29"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="28"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28" t="s">
+      <c r="A77" s="26"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="29"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="28"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28" t="s">
+      <c r="A78" s="26"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="29"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="28"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28" t="str">
+      <c r="A79" s="26"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27" t="str">
         <f xml:space="preserve"> "MaxEC = " &amp; $C$40</f>
-        <v>MaxEC = 1.5</v>
-      </c>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="29"/>
+        <v>MaxEC = 5</v>
+      </c>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="28"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28" t="s">
+      <c r="A80" s="26"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="29"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="28"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28" t="s">
+      <c r="A81" s="26"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="29"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="28"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28" t="str">
+      <c r="A82" s="26"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27" t="str">
         <f xml:space="preserve"> B41 &amp; " = " &amp; E41</f>
-        <v>LiquidFuel = 0.0001275</v>
-      </c>
-      <c r="F82" s="28"/>
-      <c r="G82" s="29"/>
+        <v>LiquidFuel = 0.000425</v>
+      </c>
+      <c r="F82" s="27"/>
+      <c r="G82" s="28"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28" t="str">
+      <c r="A83" s="26"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27" t="str">
         <f xml:space="preserve"> B42 &amp; " = " &amp; E42</f>
-        <v>IntakeAir = 0.0306</v>
-      </c>
-      <c r="F83" s="28"/>
-      <c r="G83" s="29"/>
+        <v>IntakeAir = 0.102</v>
+      </c>
+      <c r="F83" s="27"/>
+      <c r="G83" s="28"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28" t="s">
+      <c r="A84" s="26"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="29"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="28"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28" t="s">
+      <c r="A85" s="26"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="29"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="28"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
-      <c r="B86" s="31" t="s">
+      <c r="A86" s="29"/>
+      <c r="B86" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="32"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="31"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -2423,6 +5721,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/ResourceMassPerEC.xlsx
+++ b/ResourceMassPerEC.xlsx
@@ -4084,8 +4084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4124,6 +4124,10 @@
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
+      <c r="H4" s="1">
+        <f>F8/(G8*1000)</f>
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4232,20 +4236,20 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H8" s="6">
-        <f>1/G8</f>
-        <v>200</v>
+        <f>G8*1000</f>
+        <v>5</v>
       </c>
       <c r="I8" s="6">
         <f>SUM(I9:I10)</f>
         <v>1.2500000000000001E-5</v>
       </c>
       <c r="J8" s="7">
-        <f>H8*F8</f>
-        <v>80000</v>
+        <f>F8/H8</f>
+        <v>80</v>
       </c>
       <c r="K8" s="7">
         <f>J8/L8</f>
-        <v>16000</v>
+        <v>16</v>
       </c>
       <c r="L8" s="6">
         <f>(D9*L9)+(D10*L10)</f>
@@ -4287,16 +4291,16 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H9" s="6">
-        <f>1/G9</f>
-        <v>200</v>
+        <f>G9*1000</f>
+        <v>5</v>
       </c>
       <c r="I9" s="6">
         <f>E9*G9</f>
         <v>5.6249999999999995E-6</v>
       </c>
-      <c r="J9" s="6">
-        <f>I9*1000</f>
-        <v>5.6249999999999998E-3</v>
+      <c r="J9" s="7">
+        <f>F9/H9</f>
+        <v>0</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6">
@@ -4335,16 +4339,16 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H10" s="6">
-        <f>1/G10</f>
-        <v>200</v>
+        <f>G10*1000</f>
+        <v>5</v>
       </c>
       <c r="I10" s="6">
         <f>E10*G10</f>
         <v>6.8750000000000011E-6</v>
       </c>
-      <c r="J10" s="6">
-        <f>I10*1000</f>
-        <v>6.8750000000000009E-3</v>
+      <c r="J10" s="7">
+        <f>F10/H10</f>
+        <v>0</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6">
@@ -4414,20 +4418,20 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H12" s="6">
-        <f>1/G12</f>
-        <v>250</v>
+        <f>G12*1000</f>
+        <v>4</v>
       </c>
       <c r="I12" s="6">
         <f>E12/G12</f>
         <v>0.25</v>
       </c>
       <c r="J12" s="7">
-        <f>H12*F12</f>
-        <v>250000</v>
+        <f>F12/H12</f>
+        <v>250</v>
       </c>
       <c r="K12" s="7">
         <f>J12/L12</f>
-        <v>50000</v>
+        <v>50</v>
       </c>
       <c r="L12" s="5">
         <v>5</v>
@@ -4531,20 +4535,20 @@
         <v>5.317934023574977E-7</v>
       </c>
       <c r="H15" s="6">
-        <f>1/G15</f>
-        <v>1880429.496806263</v>
+        <f>G15*1000</f>
+        <v>5.3179340235749771E-4</v>
       </c>
       <c r="I15" s="5">
         <f>SUM(I9:I10)</f>
         <v>1.2500000000000001E-5</v>
       </c>
       <c r="J15" s="7">
-        <f>H15*F15</f>
-        <v>5999001.9427328901</v>
+        <f>F15/H15</f>
+        <v>5999.0019427328907</v>
       </c>
       <c r="K15" s="7">
         <f>J15/L15</f>
-        <v>5999001.9427328901</v>
+        <v>5999.0019427328907</v>
       </c>
       <c r="L15" s="6">
         <f>(D16*L16)+(D17*L17)</f>
@@ -4582,16 +4586,16 @@
         <v>8.9900000000000004E-8</v>
       </c>
       <c r="H16" s="6">
-        <f>1/G16</f>
-        <v>11123470.522803115</v>
+        <f>G16*1000</f>
+        <v>8.9900000000000003E-5</v>
       </c>
       <c r="I16" s="19">
         <f>E16*G16</f>
         <v>1.874681996118599E-8</v>
       </c>
-      <c r="J16" s="20">
-        <f>I16*1000</f>
-        <v>1.8746819961185989E-5</v>
+      <c r="J16" s="7">
+        <f>F16/H16</f>
+        <v>0</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="6">
@@ -4630,16 +4634,16 @@
         <v>1.4100000000000001E-6</v>
       </c>
       <c r="H17" s="6">
-        <f>1/G17</f>
-        <v>709219.85815602832</v>
+        <f>G17*1000</f>
+        <v>1.41E-3</v>
       </c>
       <c r="I17" s="17">
         <f>E17*G17</f>
         <v>1.4794757513088201E-7</v>
       </c>
-      <c r="J17" s="20">
-        <f>I17*1000</f>
-        <v>1.4794757513088202E-4</v>
+      <c r="J17" s="7">
+        <f>F17/H17</f>
+        <v>0</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="6">
@@ -4708,20 +4712,20 @@
         <v>1E-3</v>
       </c>
       <c r="H19" s="6">
-        <f>1/G19</f>
-        <v>1000</v>
+        <f>G19*1000</f>
+        <v>1</v>
       </c>
       <c r="I19" s="17">
         <f>E19*G19</f>
         <v>1.6868384430481187E-7</v>
       </c>
-      <c r="J19" s="20">
-        <f>I19*1000</f>
-        <v>1.6868384430481187E-4</v>
+      <c r="J19" s="7">
+        <f>F19/H19</f>
+        <v>5928.2499999999945</v>
       </c>
       <c r="K19" s="17">
         <f>J19/L19</f>
-        <v>1.6868384430481187E-4</v>
+        <v>5928.2499999999945</v>
       </c>
       <c r="L19" s="6">
         <v>1</v>
@@ -4790,20 +4794,20 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H21" s="6">
-        <f>1/G21</f>
-        <v>200</v>
+        <f>G21*1000</f>
+        <v>5</v>
       </c>
       <c r="I21" s="6">
         <f>SUM(I22:I23)</f>
         <v>6.800000000000001E-6</v>
       </c>
       <c r="J21" s="7">
-        <f>H21*F21</f>
-        <v>147058.82352941175</v>
+        <f>F21/H21</f>
+        <v>147.05882352941177</v>
       </c>
       <c r="K21" s="7">
         <f>J21/L21</f>
-        <v>117647.0588235294</v>
+        <v>117.64705882352942</v>
       </c>
       <c r="L21" s="6">
         <f>(D22*L22)+(D23*L23)</f>
@@ -4842,16 +4846,16 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H22" s="6">
-        <f>1/G22</f>
-        <v>200</v>
+        <f>G22*1000</f>
+        <v>5</v>
       </c>
       <c r="I22" s="6">
         <f>E22*G22</f>
         <v>4.2500000000000006E-7</v>
       </c>
-      <c r="J22" s="6">
-        <f>I22*1000</f>
-        <v>4.2500000000000008E-4</v>
+      <c r="J22" s="7">
+        <f>F22/H22</f>
+        <v>0</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6">
@@ -4889,16 +4893,16 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H23" s="6">
-        <f>1/G23</f>
-        <v>200</v>
+        <f>G23*1000</f>
+        <v>5</v>
       </c>
       <c r="I23" s="6">
         <f>E23*G23</f>
         <v>6.3750000000000008E-6</v>
       </c>
-      <c r="J23" s="6">
-        <f>I23*1000</f>
-        <v>6.3750000000000005E-3</v>
+      <c r="J23" s="7">
+        <f>F23/H23</f>
+        <v>0</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6">
